--- a/Index/GP Nr. 35,36,38.xlsx
+++ b/Index/GP Nr. 35,36,38.xlsx
@@ -1369,6 +1369,9 @@
       <c r="K20" t="n">
         <v>287.9</v>
       </c>
+      <c r="L20" t="n">
+        <v>260.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2306,6 +2309,9 @@
       <c r="K20" t="n">
         <v>213.1</v>
       </c>
+      <c r="L20" t="n">
+        <v>194.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3243,6 +3249,9 @@
       <c r="K20" t="n">
         <v>396.9</v>
       </c>
+      <c r="L20" t="n">
+        <v>348.3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4180,6 +4189,9 @@
       <c r="K20" t="n">
         <v>1026.7</v>
       </c>
+      <c r="L20" t="n">
+        <v>894.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5117,6 +5129,9 @@
       <c r="K20" t="n">
         <v>147</v>
       </c>
+      <c r="L20" t="n">
+        <v>147</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -6054,6 +6069,9 @@
       <c r="K20" t="n">
         <v>187.4</v>
       </c>
+      <c r="L20" t="n">
+        <v>187.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -6991,6 +7009,9 @@
       <c r="K20" t="n">
         <v>144.1</v>
       </c>
+      <c r="L20" t="n">
+        <v>144.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -7928,6 +7949,9 @@
       <c r="K20" t="n">
         <v>126.8</v>
       </c>
+      <c r="L20" t="n">
+        <v>126.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -8867,6 +8891,9 @@
       <c r="K20" t="n">
         <v>319.2</v>
       </c>
+      <c r="L20" t="n">
+        <v>281.6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -9804,6 +9831,9 @@
       <c r="K20" t="n">
         <v>239.2</v>
       </c>
+      <c r="L20" t="n">
+        <v>246.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -10741,6 +10771,9 @@
       <c r="K20" t="n">
         <v>232.6</v>
       </c>
+      <c r="L20" t="n">
+        <v>247.6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -11679,6 +11712,9 @@
       <c r="K20" t="n">
         <v>298</v>
       </c>
+      <c r="L20" t="n">
+        <v>269.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -12616,6 +12652,9 @@
       <c r="K20" t="n">
         <v>559.6</v>
       </c>
+      <c r="L20" t="n">
+        <v>369.3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -13553,6 +13592,9 @@
       <c r="K20" t="n">
         <v>288.2</v>
       </c>
+      <c r="L20" t="n">
+        <v>268.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14490,6 +14532,9 @@
       <c r="K20" t="n">
         <v>324.7</v>
       </c>
+      <c r="L20" t="n">
+        <v>281.3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15427,6 +15472,9 @@
       <c r="K20" t="n">
         <v>422</v>
       </c>
+      <c r="L20" t="n">
+        <v>312.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -16364,6 +16412,9 @@
       <c r="K20" t="n">
         <v>668.1</v>
       </c>
+      <c r="L20" t="n">
+        <v>411</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -17301,6 +17352,9 @@
       <c r="K20" t="n">
         <v>523.5</v>
       </c>
+      <c r="L20" t="n">
+        <v>377.9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -18238,6 +18292,9 @@
       <c r="K20" t="n">
         <v>292.6</v>
       </c>
+      <c r="L20" t="n">
+        <v>272.6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -19305,6 +19362,9 @@
       <c r="K20" t="n">
         <v>556.3</v>
       </c>
+      <c r="L20" t="n">
+        <v>555.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -20242,6 +20302,9 @@
       <c r="K20" t="n">
         <v>152.4</v>
       </c>
+      <c r="L20" t="n">
+        <v>155.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -21179,6 +21242,9 @@
       <c r="K20" t="n">
         <v>113.9</v>
       </c>
+      <c r="L20" t="n">
+        <v>113.9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -22116,6 +22182,9 @@
       <c r="K20" t="n">
         <v>306.8</v>
       </c>
+      <c r="L20" t="n">
+        <v>276.3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -23053,6 +23122,9 @@
       <c r="K20" t="n">
         <v>113.1</v>
       </c>
+      <c r="L20" t="n">
+        <v>113.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -23990,6 +24062,9 @@
       <c r="K20" t="n">
         <v>113.3</v>
       </c>
+      <c r="L20" t="n">
+        <v>113.3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -24927,6 +25002,9 @@
       <c r="K20" t="n">
         <v>116.8</v>
       </c>
+      <c r="L20" t="n">
+        <v>116.9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -25864,6 +25942,9 @@
       <c r="K20" t="n">
         <v>156.1</v>
       </c>
+      <c r="L20" t="n">
+        <v>148.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -26801,6 +26882,9 @@
       <c r="K20" t="n">
         <v>167.6</v>
       </c>
+      <c r="L20" t="n">
+        <v>163.3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -27998,6 +28082,9 @@
       <c r="K20" t="n">
         <v>116.6</v>
       </c>
+      <c r="L20" t="n">
+        <v>96.7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -28938,6 +29025,9 @@
       <c r="K20" t="n">
         <v>417.1</v>
       </c>
+      <c r="L20" t="n">
+        <v>308.9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -29882,6 +29972,9 @@
       <c r="K20" t="n">
         <v>663.5</v>
       </c>
+      <c r="L20" t="n">
+        <v>407.3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -30823,6 +30916,9 @@
       <c r="K20" t="n">
         <v>520.1</v>
       </c>
+      <c r="L20" t="n">
+        <v>374.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -31760,6 +31856,9 @@
       <c r="K20" t="n">
         <v>296.3</v>
       </c>
+      <c r="L20" t="n">
+        <v>271.7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -32697,6 +32796,9 @@
       <c r="K20" t="n">
         <v>335.3</v>
       </c>
+      <c r="L20" t="n">
+        <v>304.3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -33634,6 +33736,9 @@
       <c r="K20" t="n">
         <v>565.4</v>
       </c>
+      <c r="L20" t="n">
+        <v>506.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -34571,6 +34676,9 @@
       <c r="K20" t="n">
         <v>137.3</v>
       </c>
+      <c r="L20" t="n">
+        <v>138.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -35508,6 +35616,9 @@
       <c r="K20" t="n">
         <v>134.5</v>
       </c>
+      <c r="L20" t="n">
+        <v>136.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -36445,6 +36556,9 @@
       <c r="K20" t="n">
         <v>327.1</v>
       </c>
+      <c r="L20" t="n">
+        <v>289.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">

--- a/Index/GP Nr. 35,36,38.xlsx
+++ b/Index/GP Nr. 35,36,38.xlsx
@@ -1,50 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GP = 3536" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="GP = 35" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="GP = 35 12" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="GP = 35 1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="GP = 35 11" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="GP = 35 11 11" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="GP = 35 11 12" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="GP = 35 11 13" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="GP = 35 11 1415" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="GP = 35 11 14" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="GP = 35 11 15" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="GP = 3511 15 300" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="GP = 35 121314" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="GP = 35 121315" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="GP = 35 13" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="GP = 35 14" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="GP = 35 2" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="GP = 3522 21" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="GP = 3522 22" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="GP = 3522 23" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="GP = 3522 23 100" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="GP = 3522 23 200" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="GP = 3522 23 300" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="GP = 3522 23 400" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="GP = 3522 24" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="GP = 3522 27" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="GP = 3522 28" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="GP = 35 3" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="GP = 36" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="GP = 3600 11" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="GP = 3600 12" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="GP = 3600 13" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="GP = 38 32" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="GP = 38 32 2" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="GP = 38 32 3" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="GP = 35 22 23 301" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="GP = 35 22 23 401" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="GP = 35 22 24 101" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 3536" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 35" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 35 12" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 35 1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 35 11" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 35 11 11" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 35 11 12" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 35 11 13" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 35 11 1415" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 35 11 14" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 35 11 15" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 3511 15 300" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 35 121314" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 35 121315" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 35 13" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 35 14" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 35 2" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 3522 21" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 3522 22" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 3522 23" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 3522 23 100" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 3522 23 200" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 3522 23 300" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 3522 23 400" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 3522 24" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 3522 27" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 3522 28" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 35 3" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 36" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 3600 11" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 3600 12" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 3600 13" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 38 32" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 38 32 2" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 38 32 3" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 35 22 23 301" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 35 22 23 401" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 35 22 24 101" sheetId="38" state="visible" r:id="rId38"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1372,6 +1372,12 @@
       <c r="L20" t="n">
         <v>260.8</v>
       </c>
+      <c r="M20" t="n">
+        <v>260</v>
+      </c>
+      <c r="N20" t="n">
+        <v>241.9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2312,6 +2318,12 @@
       <c r="L20" t="n">
         <v>194.2</v>
       </c>
+      <c r="M20" t="n">
+        <v>191.1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>190.6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3252,6 +3264,12 @@
       <c r="L20" t="n">
         <v>348.3</v>
       </c>
+      <c r="M20" t="n">
+        <v>356.2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>344.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4192,6 +4210,12 @@
       <c r="L20" t="n">
         <v>894.8</v>
       </c>
+      <c r="M20" t="n">
+        <v>975.5</v>
+      </c>
+      <c r="N20" t="n">
+        <v>902.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5132,6 +5156,12 @@
       <c r="L20" t="n">
         <v>147</v>
       </c>
+      <c r="M20" t="n">
+        <v>147</v>
+      </c>
+      <c r="N20" t="n">
+        <v>147</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -6072,6 +6102,12 @@
       <c r="L20" t="n">
         <v>187.4</v>
       </c>
+      <c r="M20" t="n">
+        <v>187.4</v>
+      </c>
+      <c r="N20" t="n">
+        <v>187.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -7012,6 +7048,12 @@
       <c r="L20" t="n">
         <v>144.1</v>
       </c>
+      <c r="M20" t="n">
+        <v>144.1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>144.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -7952,6 +7994,12 @@
       <c r="L20" t="n">
         <v>126.8</v>
       </c>
+      <c r="M20" t="n">
+        <v>126.8</v>
+      </c>
+      <c r="N20" t="n">
+        <v>126.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -8894,6 +8942,12 @@
       <c r="L20" t="n">
         <v>281.6</v>
       </c>
+      <c r="M20" t="n">
+        <v>275.3</v>
+      </c>
+      <c r="N20" t="n">
+        <v>255.6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -9834,6 +9888,12 @@
       <c r="L20" t="n">
         <v>246.2</v>
       </c>
+      <c r="M20" t="n">
+        <v>249.8</v>
+      </c>
+      <c r="N20" t="n">
+        <v>180.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -10774,6 +10834,12 @@
       <c r="L20" t="n">
         <v>247.6</v>
       </c>
+      <c r="M20" t="n">
+        <v>246.8</v>
+      </c>
+      <c r="N20" t="n">
+        <v>188.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -11715,6 +11781,12 @@
       <c r="L20" t="n">
         <v>269.4</v>
       </c>
+      <c r="M20" t="n">
+        <v>268.5</v>
+      </c>
+      <c r="N20" t="n">
+        <v>249.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -12655,6 +12727,12 @@
       <c r="L20" t="n">
         <v>369.3</v>
       </c>
+      <c r="M20" t="n">
+        <v>377</v>
+      </c>
+      <c r="N20" t="n">
+        <v>392</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -13595,6 +13673,12 @@
       <c r="L20" t="n">
         <v>268.1</v>
       </c>
+      <c r="M20" t="n">
+        <v>263.9</v>
+      </c>
+      <c r="N20" t="n">
+        <v>218.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14535,6 +14619,12 @@
       <c r="L20" t="n">
         <v>281.3</v>
       </c>
+      <c r="M20" t="n">
+        <v>271.8</v>
+      </c>
+      <c r="N20" t="n">
+        <v>242.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15475,6 +15565,12 @@
       <c r="L20" t="n">
         <v>312.8</v>
       </c>
+      <c r="M20" t="n">
+        <v>308.1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>313.9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -16415,6 +16511,12 @@
       <c r="L20" t="n">
         <v>411</v>
       </c>
+      <c r="M20" t="n">
+        <v>426.2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>459.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -17355,6 +17457,12 @@
       <c r="L20" t="n">
         <v>377.9</v>
       </c>
+      <c r="M20" t="n">
+        <v>423.2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>406.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -18295,6 +18403,12 @@
       <c r="L20" t="n">
         <v>272.6</v>
       </c>
+      <c r="M20" t="n">
+        <v>257.6</v>
+      </c>
+      <c r="N20" t="n">
+        <v>248.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -19365,6 +19479,12 @@
       <c r="L20" t="n">
         <v>555.8</v>
       </c>
+      <c r="M20" t="n">
+        <v>591.2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>640.9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -20305,6 +20425,12 @@
       <c r="L20" t="n">
         <v>155.4</v>
       </c>
+      <c r="M20" t="n">
+        <v>155.6</v>
+      </c>
+      <c r="N20" t="n">
+        <v>129.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -21245,6 +21371,12 @@
       <c r="L20" t="n">
         <v>113.9</v>
       </c>
+      <c r="M20" t="n">
+        <v>113.9</v>
+      </c>
+      <c r="N20" t="n">
+        <v>113.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -22185,6 +22317,12 @@
       <c r="L20" t="n">
         <v>276.3</v>
       </c>
+      <c r="M20" t="n">
+        <v>275.4</v>
+      </c>
+      <c r="N20" t="n">
+        <v>256.6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -23125,6 +23263,12 @@
       <c r="L20" t="n">
         <v>113.1</v>
       </c>
+      <c r="M20" t="n">
+        <v>113.1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>112.6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -24065,6 +24209,12 @@
       <c r="L20" t="n">
         <v>113.3</v>
       </c>
+      <c r="M20" t="n">
+        <v>113.3</v>
+      </c>
+      <c r="N20" t="n">
+        <v>112.3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -25005,6 +25155,12 @@
       <c r="L20" t="n">
         <v>116.9</v>
       </c>
+      <c r="M20" t="n">
+        <v>116.9</v>
+      </c>
+      <c r="N20" t="n">
+        <v>115.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -25945,6 +26101,12 @@
       <c r="L20" t="n">
         <v>148.4</v>
       </c>
+      <c r="M20" t="n">
+        <v>149.3</v>
+      </c>
+      <c r="N20" t="n">
+        <v>187.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -26885,6 +27047,12 @@
       <c r="L20" t="n">
         <v>163.3</v>
       </c>
+      <c r="M20" t="n">
+        <v>165.7</v>
+      </c>
+      <c r="N20" t="n">
+        <v>194.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -28085,6 +28253,12 @@
       <c r="L20" t="n">
         <v>96.7</v>
       </c>
+      <c r="M20" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="N20" t="n">
+        <v>161.7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -29028,6 +29202,12 @@
       <c r="L20" t="n">
         <v>308.9</v>
       </c>
+      <c r="M20" t="n">
+        <v>303.6</v>
+      </c>
+      <c r="N20" t="n">
+        <v>310.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -29975,6 +30155,12 @@
       <c r="L20" t="n">
         <v>407.3</v>
       </c>
+      <c r="M20" t="n">
+        <v>420.2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>453.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -30919,6 +31105,12 @@
       <c r="L20" t="n">
         <v>374.5</v>
       </c>
+      <c r="M20" t="n">
+        <v>420.3</v>
+      </c>
+      <c r="N20" t="n">
+        <v>403</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -31859,6 +32051,12 @@
       <c r="L20" t="n">
         <v>271.7</v>
       </c>
+      <c r="M20" t="n">
+        <v>275.4</v>
+      </c>
+      <c r="N20" t="n">
+        <v>257.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -32799,6 +32997,12 @@
       <c r="L20" t="n">
         <v>304.3</v>
       </c>
+      <c r="M20" t="n">
+        <v>309</v>
+      </c>
+      <c r="N20" t="n">
+        <v>286.3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -33739,6 +33943,12 @@
       <c r="L20" t="n">
         <v>506.1</v>
       </c>
+      <c r="M20" t="n">
+        <v>516.5</v>
+      </c>
+      <c r="N20" t="n">
+        <v>460.3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -34679,6 +34889,12 @@
       <c r="L20" t="n">
         <v>138.4</v>
       </c>
+      <c r="M20" t="n">
+        <v>138.4</v>
+      </c>
+      <c r="N20" t="n">
+        <v>129.6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -35619,6 +35835,12 @@
       <c r="L20" t="n">
         <v>136.4</v>
       </c>
+      <c r="M20" t="n">
+        <v>139.4</v>
+      </c>
+      <c r="N20" t="n">
+        <v>130</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -36559,6 +36781,12 @@
       <c r="L20" t="n">
         <v>289.8</v>
       </c>
+      <c r="M20" t="n">
+        <v>293.5</v>
+      </c>
+      <c r="N20" t="n">
+        <v>286.3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
